--- a/dynamic/results/PLSDA_MTBLS547.xlsx
+++ b/dynamic/results/PLSDA_MTBLS547.xlsx
@@ -404,12 +404,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['0.96 (0.91, 0.99)']</t>
+          <t>['0.96 (0.92, 0.99)']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['0.67 (0.6, 0.74)']</t>
+          <t>['0.67 (0.59, 0.76)']</t>
         </is>
       </c>
     </row>
@@ -429,12 +429,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['0.89 (0.78, 0.99)']</t>
+          <t>['0.89 (0.79, 0.99)']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['0.42 (0.28, 0.69)']</t>
+          <t>['0.42 (0.3, 0.71)']</t>
         </is>
       </c>
     </row>
